--- a/NEW HR/DONE/PARAISO, MARIA LORENA.xlsx
+++ b/NEW HR/DONE/PARAISO, MARIA LORENA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="111">
   <si>
     <t>PERIOD</t>
   </si>
@@ -270,9 +270,6 @@
     <t>12/17,20,21,27,28/2021</t>
   </si>
   <si>
-    <t>12/19,20,21,26,27</t>
-  </si>
-  <si>
     <t>3/28,31/2023</t>
   </si>
   <si>
@@ -304,6 +301,75 @@
   </si>
   <si>
     <t>9/25,26/2023</t>
+  </si>
+  <si>
+    <t>VL(10-0-0)</t>
+  </si>
+  <si>
+    <t>10/16,17,19,20,23,24,26,27,30,31/2023</t>
+  </si>
+  <si>
+    <t>10/2,5,6/2023</t>
+  </si>
+  <si>
+    <t>11/9,10,13-17,23,27,28/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>12/6,19,20,21,27/2022</t>
+  </si>
+  <si>
+    <t>UT(0-7-31)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-4-47)</t>
+  </si>
+  <si>
+    <t>UT(0-2-16)</t>
+  </si>
+  <si>
+    <t>UT(0-3-57)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>8/15,16,22/2022</t>
+  </si>
+  <si>
+    <t>7/4,5,25/2022</t>
+  </si>
+  <si>
+    <t>UT(1-1-23)</t>
+  </si>
+  <si>
+    <t>UT(1-0-34)</t>
+  </si>
+  <si>
+    <t>UT(1-0-27)</t>
+  </si>
+  <si>
+    <t>UT(0-7-44)</t>
+  </si>
+  <si>
+    <t>11/21, 24/2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>12/08,11,12,14,15/2023</t>
+  </si>
+  <si>
+    <t>12/22,25,26,28,29/2023</t>
   </si>
 </sst>
 </file>
@@ -2945,7 +3011,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K142" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -2975,7 +3041,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3353,12 +3419,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K142"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="3900" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3900" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3517,7 +3583,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>59.125</v>
+        <v>48.390999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3527,7 +3593,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>86.125</v>
+        <v>87.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4105,7 +4171,7 @@
         <v>43800</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="13">
         <v>1.1250000000000002</v>
@@ -4127,7 +4193,7 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
@@ -4143,7 +4209,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -4768,11 +4834,15 @@
       <c r="A68" s="40">
         <v>44652</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
-      <c r="D68" s="39"/>
+      <c r="D68" s="39">
+        <v>1</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
@@ -4782,37 +4852,43 @@
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
+      <c r="K68" s="49">
+        <v>44676</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D69" s="39"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="39">
+        <v>0.96699999999999997</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
+      <c r="K69" s="49"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B70" s="20"/>
+        <v>44682</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="39">
+        <v>1.056</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4826,13 +4902,17 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B71" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="39">
+        <v>1.071</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -4846,13 +4926,17 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B72" s="20"/>
+        <v>44743</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>3</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -4862,22 +4946,24 @@
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D73" s="39"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="39">
+        <v>1.173</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
@@ -4886,13 +4972,17 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B74" s="20"/>
+        <v>44774</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="39"/>
+      <c r="D74" s="39">
+        <v>3</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -4902,17 +4992,23 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B75" s="20"/>
+        <v>44805</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C75" s="13">
         <v>1.25</v>
       </c>
-      <c r="D75" s="39"/>
+      <c r="D75" s="39">
+        <v>0.49399999999999999</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13">
@@ -4926,16 +5022,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
       <c r="D76" s="39">
-        <v>5</v>
+        <v>0.28300000000000003</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
@@ -4946,57 +5042,65 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20" t="s">
-        <v>77</v>
-      </c>
+      <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="39"/>
+      <c r="A77" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D77" s="39">
+        <v>1</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="49">
+        <v>44883</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A78" s="40"/>
+      <c r="B78" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="13"/>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="49"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B79" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
-      <c r="D79" s="39"/>
+      <c r="D79" s="39">
+        <v>5</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
@@ -5006,48 +5110,42 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" s="13">
-        <v>1.25</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C80" s="13"/>
       <c r="D80" s="39">
-        <v>2</v>
+        <v>0.94</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>45017</v>
+      <c r="A81" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C81" s="13"/>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -5056,7 +5154,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45047</v>
+        <v>44927</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -5076,7 +5174,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45078</v>
+        <v>44958</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -5096,7 +5194,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45108</v>
+        <v>44986</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -5112,11 +5210,13 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45139</v>
+        <v>45017</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -5136,7 +5236,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45170</v>
+        <v>45047</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -5156,16 +5256,18 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -5173,15 +5275,19 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45108</v>
+      </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -5189,15 +5295,19 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45139</v>
+      </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -5205,15 +5315,19 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45170</v>
+      </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
@@ -5221,15 +5335,19 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45200</v>
+      </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
@@ -5237,8 +5355,12 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="20"/>
+      <c r="A92" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
@@ -5250,10 +5372,14 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="49">
+        <v>45266</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45261</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5269,7 +5395,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="48" t="s">
+        <v>92</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5285,7 +5413,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45292</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5301,7 +5431,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45323</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5317,7 +5449,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45352</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5333,7 +5467,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45383</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5349,7 +5485,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45413</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5365,7 +5503,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45444</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5381,7 +5521,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45474</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5397,7 +5539,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45505</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5413,7 +5557,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45536</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5429,7 +5575,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45566</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5445,7 +5593,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45597</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5461,7 +5611,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45627</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -5477,7 +5629,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+      <c r="A107" s="48" t="s">
+        <v>93</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -5493,7 +5647,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45658</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -5509,7 +5665,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45689</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -5941,20 +6099,116 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="43"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="40"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="40"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="41"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="42"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="43"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6001,12 +6255,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A22" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="3510" topLeftCell="A37" activePane="bottomLeft"/>
+      <selection activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6176,7 +6430,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>41.625</v>
+        <v>13.625</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6186,7 +6440,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>56.620000000000005</v>
+        <v>51.620000000000005</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6806,7 +7060,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -6830,67 +7084,62 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40">
-        <v>45096</v>
-      </c>
+      <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="C38" s="39">
+        <v>2</v>
+      </c>
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H38" s="39">
-        <v>1</v>
-      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="49">
-        <v>45092</v>
+      <c r="K38" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45145</v>
+        <v>45096</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="39">
-        <v>1</v>
-      </c>
+      <c r="D39" s="39"/>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H39" s="39"/>
+      <c r="H39" s="39">
+        <v>1</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
       <c r="K39" s="49">
-        <v>45153</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45173</v>
+        <v>45145</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
@@ -6901,76 +7150,78 @@
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20" t="s">
-        <v>85</v>
+      <c r="K40" s="49">
+        <v>45153</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="40">
+        <v>45173</v>
+      </c>
       <c r="B41" s="20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="39"/>
+      <c r="D41" s="39">
+        <v>2</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H41" s="39">
-        <v>1</v>
-      </c>
+      <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="49">
-        <v>45168</v>
+      <c r="K41" s="20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C42" s="13"/>
-      <c r="D42" s="39">
-        <v>2</v>
-      </c>
+      <c r="D42" s="39"/>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H42" s="39"/>
+      <c r="H42" s="39">
+        <v>1</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20" t="s">
-        <v>86</v>
+      <c r="K42" s="49">
+        <v>45168</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="40">
+        <v>45200</v>
+      </c>
       <c r="B43" s="20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="39"/>
+      <c r="D43" s="39">
+        <v>2</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
       <c r="G43" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H43" s="39">
-        <v>2</v>
-      </c>
+      <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
       <c r="K43" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -6992,12 +7243,14 @@
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
       <c r="K44" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C45" s="13"/>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
@@ -7006,16 +7259,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H45" s="39"/>
+      <c r="H45" s="39">
+        <v>2</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="39"/>
+      <c r="D46" s="39">
+        <v>10</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13" t="str">
@@ -7025,11 +7286,15 @@
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
       <c r="E47" s="9"/>
@@ -7038,16 +7303,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H47" s="39"/>
+      <c r="H47" s="39">
+        <v>3</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
+      <c r="K47" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>10</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13" t="str">
@@ -7057,11 +7332,17 @@
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="40">
+        <v>45255</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
@@ -7070,16 +7351,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H49" s="39"/>
+      <c r="H49" s="39">
+        <v>2</v>
+      </c>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
-      <c r="B50" s="20"/>
+      <c r="B50" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="39"/>
+      <c r="D50" s="39">
+        <v>5</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13" t="str">
@@ -7089,13 +7378,19 @@
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
+      <c r="K50" s="20" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="C51" s="13"/>
-      <c r="D51" s="39"/>
+      <c r="D51" s="39">
+        <v>5</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
       <c r="G51" s="13" t="str">
@@ -7105,7 +7400,9 @@
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="20" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
@@ -8356,20 +8653,36 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8417,7 +8730,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8484,11 +8797,15 @@
         <v>95.62</v>
       </c>
       <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>44</v>
+      </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -8512,7 +8829,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
@@ -8537,7 +8854,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>145.25</v>
+        <v>135.76599999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
